--- a/Library/SmokeSanityTestCases_LPH.xlsx
+++ b/Library/SmokeSanityTestCases_LPH.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -145,15 +145,6 @@
   </si>
   <si>
     <t>Billing\Opbilling\TC002OPDbillingLabXray.py</t>
-  </si>
-  <si>
-    <t>Deprecated: LPH</t>
-  </si>
-  <si>
-    <t>Hidden: LPH</t>
-  </si>
-  <si>
-    <t>OnHold: LPH</t>
   </si>
   <si>
     <t>Laboratory\TC005GenerateLabReport.py</t>
@@ -540,7 +531,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,7 +566,7 @@
         <v>31</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -597,7 +588,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -619,12 +610,12 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>29</v>
@@ -641,7 +632,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -663,7 +654,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -685,7 +676,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -707,7 +698,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J7" t="s">
         <v>39</v>
@@ -715,7 +706,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>29</v>
@@ -732,7 +723,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -754,7 +745,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -776,7 +767,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -798,7 +789,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -820,7 +811,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -839,12 +830,10 @@
       <c r="E13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>42</v>
-      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -863,12 +852,10 @@
       <c r="E14" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -887,12 +874,10 @@
       <c r="E15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -911,12 +896,10 @@
       <c r="E16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -935,17 +918,15 @@
       <c r="E17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>29</v>
@@ -962,7 +943,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Library/SmokeSanityTestCases_LPH.xlsx
+++ b/Library/SmokeSanityTestCases_LPH.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QA\AutomationTest\Library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA\Automation\AutomationTest\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26325" yWindow="0" windowWidth="13905" windowHeight="12300"/>
+    <workbookView xWindow="27264" yWindow="0" windowWidth="13908" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>TC005</t>
   </si>
   <si>
-    <t>Pharmacy\TC003PharmacyOPDbilling.py</t>
-  </si>
-  <si>
     <t>TC006</t>
   </si>
   <si>
@@ -160,6 +157,9 @@
   </si>
   <si>
     <t>LPH</t>
+  </si>
+  <si>
+    <t>Dispensary\TC001CreateDispensarySale.py</t>
   </si>
 </sst>
 </file>
@@ -531,19 +531,19 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.5703125" customWidth="1"/>
+    <col min="1" max="1" width="54.5546875" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.28515625" customWidth="1"/>
+    <col min="3" max="4" width="11.33203125" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,7 +554,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -563,18 +563,18 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
@@ -588,15 +588,15 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -610,15 +610,15 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -632,15 +632,15 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
@@ -654,15 +654,15 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
@@ -671,20 +671,20 @@
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
@@ -693,257 +693,257 @@
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="3">
         <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Library/SmokeSanityTestCases_LPH.xlsx
+++ b/Library/SmokeSanityTestCases_LPH.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA\Automation\AutomationTest\Library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QA\AutomationTest\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="27264" yWindow="0" windowWidth="13908" windowHeight="12300"/>
+    <workbookView xWindow="27270" yWindow="0" windowWidth="13905" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="50">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -114,9 +114,6 @@
     <t>Manual Status</t>
   </si>
   <si>
-    <t>Pharmacy\Reports\TC010VerifyPharmacyDashboard.py</t>
-  </si>
-  <si>
     <t>TC013</t>
   </si>
   <si>
@@ -160,6 +157,18 @@
   </si>
   <si>
     <t>Dispensary\TC001CreateDispensarySale.py</t>
+  </si>
+  <si>
+    <t>Pharmacy\Reports\TC002UserCollectionReport.py</t>
+  </si>
+  <si>
+    <t>GovInsurance\TC002ExisitngOPpatientBilling.py</t>
+  </si>
+  <si>
+    <t>MedicalRecords\TC001createBirth&amp;DeathCertificate.py</t>
+  </si>
+  <si>
+    <t>Appointment\TC001CreateAppointmentNewEHS.py</t>
   </si>
 </sst>
 </file>
@@ -528,22 +537,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.5546875" customWidth="1"/>
+    <col min="1" max="1" width="54.5703125" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.33203125" customWidth="1"/>
+    <col min="3" max="4" width="11.28515625" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,10 +575,10 @@
         <v>30</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -588,56 +597,50 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D3" s="3">
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>28</v>
@@ -649,64 +652,53 @@
         <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>28</v>
@@ -718,17 +710,17 @@
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>28</v>
@@ -740,17 +732,17 @@
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>28</v>
@@ -762,17 +754,17 @@
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>28</v>
@@ -784,105 +776,108 @@
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>28</v>
@@ -894,17 +889,17 @@
         <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>28</v>
@@ -916,17 +911,17 @@
         <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>28</v>
@@ -938,12 +933,70 @@
         <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Library/SmokeSanityTestCases_LPH.xlsx
+++ b/Library/SmokeSanityTestCases_LPH.xlsx
@@ -13,13 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
+    <sheet name="Modules" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="70">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -69,12 +70,6 @@
     <t>Nursing\TC001WardBilling&amp;AddVitals.py</t>
   </si>
   <si>
-    <t>Appointment\TC002CreateAppointmentFollowup.py</t>
-  </si>
-  <si>
-    <t>Reports\TC001BillingDashboardSummary.py</t>
-  </si>
-  <si>
     <t>Reports\TC003SalesDayBookReport.py</t>
   </si>
   <si>
@@ -147,9 +142,6 @@
     <t>ADT\TC010AdmissionDischargeTransferToBePaid.py</t>
   </si>
   <si>
-    <t>Accounting\Post To Accounting</t>
-  </si>
-  <si>
     <t>Env</t>
   </si>
   <si>
@@ -159,6 +151,9 @@
     <t>Dispensary\TC001CreateDispensarySale.py</t>
   </si>
   <si>
+    <t>MedicalRecords</t>
+  </si>
+  <si>
     <t>Pharmacy\Reports\TC002UserCollectionReport.py</t>
   </si>
   <si>
@@ -169,6 +164,72 @@
   </si>
   <si>
     <t>Appointment\TC001CreateAppointmentNewEHS.py</t>
+  </si>
+  <si>
+    <t>Vaccination</t>
+  </si>
+  <si>
+    <t>MedicalRecords\Reports\TC001HospitalServiceSummaryReport.py</t>
+  </si>
+  <si>
+    <t>MedicalRecords\Reports\TC002InpatientMorbidityReport.py</t>
+  </si>
+  <si>
+    <t>TC015</t>
+  </si>
+  <si>
+    <t>Sno</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>Billing-IP</t>
+  </si>
+  <si>
+    <t>Billing-OP</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>ADT</t>
+  </si>
+  <si>
+    <t>Labs (ER or OP)</t>
+  </si>
+  <si>
+    <t>Pharmacy</t>
+  </si>
+  <si>
+    <t>Nursing</t>
+  </si>
+  <si>
+    <t>GovInsurance</t>
+  </si>
+  <si>
+    <t>Reporting &amp; Dashboards</t>
+  </si>
+  <si>
+    <t>Delivery Status</t>
+  </si>
+  <si>
+    <t>Vaccination\TC001RegisterVaccinationPatient.py</t>
+  </si>
+  <si>
+    <t>Billing\TC001IPbillingCalculationCash.py</t>
+  </si>
+  <si>
+    <t>TC002</t>
+  </si>
+  <si>
+    <t>TC020</t>
+  </si>
+  <si>
+    <t>TC021</t>
   </si>
 </sst>
 </file>
@@ -192,7 +253,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,6 +263,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -252,6 +319,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,15 +605,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.5703125" customWidth="1"/>
+    <col min="1" max="1" width="59.28515625" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.28515625" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
@@ -563,7 +631,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -572,10 +640,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -583,7 +651,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
@@ -597,15 +665,15 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -614,36 +682,42 @@
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
@@ -652,34 +726,42 @@
         <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
@@ -688,20 +770,20 @@
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
@@ -710,12 +792,12 @@
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -723,7 +805,7 @@
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
@@ -732,12 +814,12 @@
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -745,7 +827,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
@@ -754,42 +836,42 @@
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>6</v>
@@ -798,20 +880,20 @@
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>6</v>
@@ -820,20 +902,20 @@
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>6</v>
@@ -842,45 +924,45 @@
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+      <c r="J14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="J15" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
@@ -889,20 +971,20 @@
         <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>13</v>
@@ -911,20 +993,20 @@
         <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>13</v>
@@ -933,20 +1015,20 @@
         <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>13</v>
@@ -955,34 +1037,42 @@
         <v>0</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="2"/>
+        <v>26</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>13</v>
@@ -991,16 +1081,176 @@
         <v>0</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Library/SmokeSanityTestCases_LPH.xlsx
+++ b/Library/SmokeSanityTestCases_LPH.xlsx
@@ -608,12 +608,12 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.28515625" customWidth="1"/>
+    <col min="1" max="1" width="66" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.28515625" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>

--- a/Library/SmokeSanityTestCases_LPH.xlsx
+++ b/Library/SmokeSanityTestCases_LPH.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QA\AutomationTest\Library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA\Automation\AutomationTest\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="27270" yWindow="0" windowWidth="13905" windowHeight="12300"/>
+    <workbookView xWindow="28212" yWindow="0" windowWidth="13908" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="76">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Nursing\TC001WardBilling&amp;AddVitals.py</t>
   </si>
   <si>
-    <t>Reports\TC003SalesDayBookReport.py</t>
-  </si>
-  <si>
     <t>TC007</t>
   </si>
   <si>
@@ -85,15 +82,9 @@
     <t>TC009</t>
   </si>
   <si>
-    <t>Reports\TC006PatientCreditSummaryReport.py</t>
-  </si>
-  <si>
     <t>TC010</t>
   </si>
   <si>
-    <t>Reports\TC007DoctorSummaryReport.py</t>
-  </si>
-  <si>
     <t>TC011</t>
   </si>
   <si>
@@ -230,6 +221,33 @@
   </si>
   <si>
     <t>TC021</t>
+  </si>
+  <si>
+    <t>Reports\TC011UserCollectionReport.py</t>
+  </si>
+  <si>
+    <t>Reports\TC002TotalItemsBillReport.py</t>
+  </si>
+  <si>
+    <t>Reports\TC013CancelBillReport.py</t>
+  </si>
+  <si>
+    <t>Reports\TC014ReturnBillsReport.py</t>
+  </si>
+  <si>
+    <t>Reports\TC008DiscountReport.py</t>
+  </si>
+  <si>
+    <t>Reports\TC015EHSBillReport.py</t>
+  </si>
+  <si>
+    <t>TC022</t>
+  </si>
+  <si>
+    <t>TC023</t>
+  </si>
+  <si>
+    <t>TC024</t>
   </si>
 </sst>
 </file>
@@ -605,22 +623,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="66" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.28515625" customWidth="1"/>
+    <col min="3" max="4" width="11.33203125" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -631,7 +649,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -640,18 +658,18 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
@@ -665,15 +683,15 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -682,20 +700,20 @@
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -709,15 +727,15 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
@@ -731,15 +749,15 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
@@ -753,18 +771,18 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D7" s="3">
         <v>0</v>
@@ -775,81 +793,81 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>6</v>
@@ -858,64 +876,64 @@
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>6</v>
@@ -924,89 +942,89 @@
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="B17" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="J17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>13</v>
@@ -1015,20 +1033,20 @@
         <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>13</v>
@@ -1037,20 +1055,20 @@
         <v>0</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>13</v>
@@ -1059,20 +1077,20 @@
         <v>0</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>13</v>
@@ -1081,20 +1099,20 @@
         <v>0</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>13</v>
@@ -1103,12 +1121,78 @@
         <v>0</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1125,128 +1209,128 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C13" s="2"/>
     </row>

--- a/Library/SmokeSanityTestCases_LPH.xlsx
+++ b/Library/SmokeSanityTestCases_LPH.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28212" yWindow="0" windowWidth="13908" windowHeight="12300"/>
+    <workbookView xWindow="29148" yWindow="0" windowWidth="13908" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -124,9 +124,6 @@
     <t>Inventory\TC001CreateGoodReceipt.py</t>
   </si>
   <si>
-    <t>Billing\Opbilling\TC002OPDbillingLabXray.py</t>
-  </si>
-  <si>
     <t>Laboratory\TC005GenerateLabReport.py</t>
   </si>
   <si>
@@ -211,9 +208,6 @@
     <t>Vaccination\TC001RegisterVaccinationPatient.py</t>
   </si>
   <si>
-    <t>Billing\TC001IPbillingCalculationCash.py</t>
-  </si>
-  <si>
     <t>TC002</t>
   </si>
   <si>
@@ -248,6 +242,12 @@
   </si>
   <si>
     <t>TC024</t>
+  </si>
+  <si>
+    <t>Billing\OPbilling\TC002OPDbillingLabXray.py</t>
+  </si>
+  <si>
+    <t>Billing\IPbilling\TC001IPbillingCalculationCash.py</t>
   </si>
 </sst>
 </file>
@@ -626,7 +626,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -661,7 +661,7 @@
         <v>25</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -683,12 +683,12 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -700,17 +700,17 @@
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -727,12 +727,12 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -749,12 +749,12 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -771,12 +771,12 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -793,12 +793,12 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -815,7 +815,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -837,12 +837,12 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -859,12 +859,12 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
@@ -881,12 +881,12 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
@@ -903,12 +903,12 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
@@ -925,12 +925,12 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>23</v>
@@ -947,7 +947,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -969,12 +969,12 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>23</v>
@@ -986,17 +986,17 @@
         <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>23</v>
@@ -1013,7 +1013,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J17" t="s">
         <v>32</v>
@@ -1021,7 +1021,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>23</v>
@@ -1038,7 +1038,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1060,7 +1060,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1082,7 +1082,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1099,17 +1099,17 @@
         <v>0</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>23</v>
@@ -1121,17 +1121,17 @@
         <v>0</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>23</v>
@@ -1143,17 +1143,17 @@
         <v>0</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
@@ -1165,17 +1165,17 @@
         <v>0</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>23</v>
@@ -1187,12 +1187,12 @@
         <v>0</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1217,13 +1217,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="C1" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1231,7 +1231,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -1240,7 +1240,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -1249,7 +1249,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -1258,7 +1258,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -1267,7 +1267,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2"/>
     </row>
@@ -1276,7 +1276,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2"/>
     </row>
@@ -1285,7 +1285,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2"/>
     </row>
@@ -1294,7 +1294,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2"/>
     </row>
@@ -1303,7 +1303,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -1312,7 +1312,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11" s="2"/>
     </row>
@@ -1321,7 +1321,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2"/>
     </row>
@@ -1330,7 +1330,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" s="2"/>
     </row>

--- a/Library/SmokeSanityTestCases_LPH.xlsx
+++ b/Library/SmokeSanityTestCases_LPH.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="29148" yWindow="0" windowWidth="13908" windowHeight="12300"/>
+    <workbookView xWindow="30084" yWindow="0" windowWidth="13908" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -626,7 +626,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Library/SmokeSanityTestCases_LPH.xlsx
+++ b/Library/SmokeSanityTestCases_LPH.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA\Automation\AutomationTest\Library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QA\AutomationTest\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="30084" yWindow="0" windowWidth="13908" windowHeight="12300"/>
+    <workbookView xWindow="30090" yWindow="0" windowWidth="13905" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -142,9 +142,6 @@
     <t>MedicalRecords</t>
   </si>
   <si>
-    <t>Pharmacy\Reports\TC002UserCollectionReport.py</t>
-  </si>
-  <si>
     <t>GovInsurance\TC002ExisitngOPpatientBilling.py</t>
   </si>
   <si>
@@ -248,6 +245,9 @@
   </si>
   <si>
     <t>Billing\IPbilling\TC001IPbillingCalculationCash.py</t>
+  </si>
+  <si>
+    <t>Pharmacy\Reports\Sales\TC03UserCollectionReport.py</t>
   </si>
 </sst>
 </file>
@@ -626,19 +626,19 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="66" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.33203125" customWidth="1"/>
+    <col min="3" max="4" width="11.28515625" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -664,7 +664,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -686,9 +686,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>23</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -708,9 +708,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>23</v>
@@ -730,9 +730,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>23</v>
@@ -752,9 +752,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>23</v>
@@ -774,9 +774,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>23</v>
@@ -796,9 +796,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>23</v>
@@ -818,7 +818,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -840,9 +840,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>23</v>
@@ -862,9 +862,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>23</v>
@@ -884,9 +884,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>23</v>
@@ -906,9 +906,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>23</v>
@@ -928,7 +928,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
@@ -950,7 +950,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -972,7 +972,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>38</v>
       </c>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -994,9 +994,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>23</v>
@@ -1019,7 +1019,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>33</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1107,9 +1107,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>23</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1129,9 +1129,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>23</v>
@@ -1143,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -1151,9 +1151,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>23</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1173,9 +1173,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>23</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1209,114 +1209,114 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="C1" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1325,12 +1325,12 @@
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2"/>
     </row>
